--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>632.9185788856302</v>
+        <v>684.9909999085343</v>
       </c>
       <c r="AB2" t="n">
-        <v>865.9871220283566</v>
+        <v>937.2349057449762</v>
       </c>
       <c r="AC2" t="n">
-        <v>783.3385265225288</v>
+        <v>847.7865217581266</v>
       </c>
       <c r="AD2" t="n">
-        <v>632918.5788856301</v>
+        <v>684990.9999085342</v>
       </c>
       <c r="AE2" t="n">
-        <v>865987.1220283565</v>
+        <v>937234.9057449762</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.119554847225866e-06</v>
+        <v>3.583212633494833e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.559722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>783338.5265225288</v>
+        <v>847786.5217581266</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.8222782572237</v>
+        <v>239.6513361749361</v>
       </c>
       <c r="AB3" t="n">
-        <v>299.4022948689831</v>
+        <v>327.9015308251647</v>
       </c>
       <c r="AC3" t="n">
-        <v>270.8277600605359</v>
+        <v>296.6070689359973</v>
       </c>
       <c r="AD3" t="n">
-        <v>218822.2782572237</v>
+        <v>239651.3361749361</v>
       </c>
       <c r="AE3" t="n">
-        <v>299402.2948689831</v>
+        <v>327901.5308251647</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.97914364463712e-06</v>
+        <v>6.726939761250261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.091666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>270827.7600605359</v>
+        <v>296607.0689359973</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.792300528339</v>
+        <v>196.7066097920719</v>
       </c>
       <c r="AB4" t="n">
-        <v>240.5267809917139</v>
+        <v>269.1426616005447</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.5712425953917</v>
+        <v>243.4560637215655</v>
       </c>
       <c r="AD4" t="n">
-        <v>175792.300528339</v>
+        <v>196706.6097920719</v>
       </c>
       <c r="AE4" t="n">
-        <v>240526.7809917139</v>
+        <v>269142.6616005447</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.388933001499771e-06</v>
+        <v>7.419709001217705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.616666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>217571.2425953917</v>
+        <v>243456.0637215655</v>
       </c>
     </row>
   </sheetData>
@@ -2386,28 +2386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>379.7834731426823</v>
+        <v>419.9751523175307</v>
       </c>
       <c r="AB2" t="n">
-        <v>519.6365028181551</v>
+        <v>574.6285313969264</v>
       </c>
       <c r="AC2" t="n">
-        <v>470.0431243036018</v>
+        <v>519.7867908566121</v>
       </c>
       <c r="AD2" t="n">
-        <v>379783.4731426823</v>
+        <v>419975.1523175307</v>
       </c>
       <c r="AE2" t="n">
-        <v>519636.5028181551</v>
+        <v>574628.5313969264</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.826796342617252e-06</v>
+        <v>4.895420486130657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.415277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>470043.1243036018</v>
+        <v>519786.7908566121</v>
       </c>
     </row>
     <row r="3">
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.2092347391683</v>
+        <v>198.3955974161766</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.1512958377239</v>
+        <v>271.4536089807187</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.1859791824104</v>
+        <v>245.5464575272115</v>
       </c>
       <c r="AD3" t="n">
-        <v>168209.2347391683</v>
+        <v>198395.5974161766</v>
       </c>
       <c r="AE3" t="n">
-        <v>230151.2958377239</v>
+        <v>271453.6089807188</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.42001021208553e-06</v>
+        <v>7.654533938273168e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.741666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>208185.9791824104</v>
+        <v>245546.4575272115</v>
       </c>
     </row>
     <row r="4">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.6141083343278</v>
+        <v>198.8004710113362</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.7052617523833</v>
+        <v>272.0075748953781</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.6870753676709</v>
+        <v>246.047553712472</v>
       </c>
       <c r="AD4" t="n">
-        <v>168614.1083343278</v>
+        <v>198800.4710113362</v>
       </c>
       <c r="AE4" t="n">
-        <v>230705.2617523833</v>
+        <v>272007.5748953781</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.423330350868168e-06</v>
+        <v>7.660283724760533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.738888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>208687.0753676709</v>
+        <v>246047.553712472</v>
       </c>
     </row>
   </sheetData>
@@ -2895,28 +2895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.7669527890244</v>
+        <v>198.1130496271701</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.6508785120919</v>
+        <v>271.0670146306715</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.3515665980329</v>
+        <v>245.196759199344</v>
       </c>
       <c r="AD2" t="n">
-        <v>170766.9527890244</v>
+        <v>198113.0496271701</v>
       </c>
       <c r="AE2" t="n">
-        <v>233650.8785120919</v>
+        <v>271067.0146306715</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.171931703230729e-06</v>
+        <v>7.894192539325723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.605555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>211351.5665980329</v>
+        <v>245196.759199344</v>
       </c>
     </row>
   </sheetData>
@@ -3192,28 +3192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.3130682123507</v>
+        <v>206.6323683486756</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.9758065453987</v>
+        <v>282.7235223512455</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.6910979909717</v>
+        <v>255.7407861830815</v>
       </c>
       <c r="AD2" t="n">
-        <v>178313.0682123507</v>
+        <v>206632.3683486755</v>
       </c>
       <c r="AE2" t="n">
-        <v>243975.8065453987</v>
+        <v>282723.5223512455</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.223464558163709e-06</v>
+        <v>7.694235194987709e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.298611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>220691.0979909717</v>
+        <v>255740.7861830815</v>
       </c>
     </row>
     <row r="3">
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.3301256979003</v>
+        <v>189.323476764396</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.053192414565</v>
+        <v>259.0407332712426</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.8109228227961</v>
+        <v>234.3182492538633</v>
       </c>
       <c r="AD3" t="n">
-        <v>170330.1256979003</v>
+        <v>189323.4767643959</v>
       </c>
       <c r="AE3" t="n">
-        <v>233053.192414565</v>
+        <v>259040.7332712426</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.360562831698853e-06</v>
+        <v>7.943998475081337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.130555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>210810.9228227961</v>
+        <v>234318.2492538633</v>
       </c>
     </row>
   </sheetData>
@@ -3595,28 +3595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.5327865982074</v>
+        <v>212.8554851533884</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.2223878693043</v>
+        <v>291.2382653079864</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.8643213780033</v>
+        <v>263.4428940225505</v>
       </c>
       <c r="AD2" t="n">
-        <v>186532.7865982074</v>
+        <v>212855.4851533884</v>
       </c>
       <c r="AE2" t="n">
-        <v>255222.3878693043</v>
+        <v>291238.2653079864</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.883591320052144e-06</v>
+        <v>7.610587692362646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.255555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>230864.3213780033</v>
+        <v>263442.8940225506</v>
       </c>
     </row>
   </sheetData>
@@ -3892,28 +3892,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>425.7817999310044</v>
+        <v>466.4846258910687</v>
       </c>
       <c r="AB2" t="n">
-        <v>582.573442832894</v>
+        <v>638.2648449934026</v>
       </c>
       <c r="AC2" t="n">
-        <v>526.9734510958842</v>
+        <v>577.3497439975678</v>
       </c>
       <c r="AD2" t="n">
-        <v>425781.7999310044</v>
+        <v>466484.6258910687</v>
       </c>
       <c r="AE2" t="n">
-        <v>582573.442832894</v>
+        <v>638264.8449934026</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.635990364762352e-06</v>
+        <v>4.535171885169321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.880555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>526973.4510958842</v>
+        <v>577349.7439975678</v>
       </c>
     </row>
     <row r="3">
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.7756032878651</v>
+        <v>202.2173819033413</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.0309586231245</v>
+        <v>276.6827431212868</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.5999338002236</v>
+        <v>250.2765304445412</v>
       </c>
       <c r="AD3" t="n">
-        <v>171775.6032878651</v>
+        <v>202217.3819033413</v>
       </c>
       <c r="AE3" t="n">
-        <v>235030.9586231245</v>
+        <v>276682.7431212868</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.392419916181873e-06</v>
+        <v>7.557075920314202e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.729166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>212599.9338002236</v>
+        <v>250276.5304445412</v>
       </c>
     </row>
     <row r="4">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.8958224605526</v>
+        <v>200.3376010760288</v>
       </c>
       <c r="AB4" t="n">
-        <v>232.4589595651197</v>
+        <v>274.1107440632819</v>
       </c>
       <c r="AC4" t="n">
-        <v>210.2734027224906</v>
+        <v>247.9499993668082</v>
       </c>
       <c r="AD4" t="n">
-        <v>169895.8224605526</v>
+        <v>200337.6010760288</v>
       </c>
       <c r="AE4" t="n">
-        <v>232458.9595651197</v>
+        <v>274110.7440632819</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.425323058323587e-06</v>
+        <v>7.61368515802979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.694444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>210273.4027224906</v>
+        <v>247949.9993668082</v>
       </c>
     </row>
   </sheetData>
@@ -4401,28 +4401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.0857550422728</v>
+        <v>228.4703161193858</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.5566925079201</v>
+        <v>312.603165913377</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.2123344862006</v>
+        <v>282.7687584999958</v>
       </c>
       <c r="AD2" t="n">
-        <v>194085.7550422728</v>
+        <v>228470.3161193858</v>
       </c>
       <c r="AE2" t="n">
-        <v>265556.6925079201</v>
+        <v>312603.165913377</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.64595635505277e-06</v>
+        <v>7.308904239809603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.818055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>240212.3344862006</v>
+        <v>282768.7584999958</v>
       </c>
     </row>
   </sheetData>
@@ -4698,28 +4698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.5065311064395</v>
+        <v>293.8640349933638</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.9095050644129</v>
+        <v>402.0777370441662</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.3693698442452</v>
+        <v>363.7040021403184</v>
       </c>
       <c r="AD2" t="n">
-        <v>264506.5311064395</v>
+        <v>293864.0349933638</v>
       </c>
       <c r="AE2" t="n">
-        <v>361909.505064413</v>
+        <v>402077.7370441662</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.454668503412709e-06</v>
+        <v>6.11847462525048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.251388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>327369.3698442451</v>
+        <v>363704.0021403185</v>
       </c>
     </row>
     <row r="3">
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.3863616810571</v>
+        <v>192.74377605943</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.5524281494768</v>
+        <v>263.7205376596611</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.2168981647585</v>
+        <v>238.5514196795994</v>
       </c>
       <c r="AD3" t="n">
-        <v>163386.3616810571</v>
+        <v>192743.77605943</v>
       </c>
       <c r="AE3" t="n">
-        <v>223552.4281494768</v>
+        <v>263720.5376596611</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.423368871414382e-06</v>
+        <v>7.834114958102695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.881944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>202216.8981647585</v>
+        <v>238551.4196795994</v>
       </c>
     </row>
   </sheetData>
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.5772320985397</v>
+        <v>371.5838966885677</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.3610382811638</v>
+        <v>508.4174805738526</v>
       </c>
       <c r="AC2" t="n">
-        <v>422.7567567329457</v>
+        <v>459.8948297962989</v>
       </c>
       <c r="AD2" t="n">
-        <v>341577.2320985397</v>
+        <v>371583.8966885677</v>
       </c>
       <c r="AE2" t="n">
-        <v>467361.0382811638</v>
+        <v>508417.4805738526</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.017726121486524e-06</v>
+        <v>5.262650850428599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.01111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>422756.7567329457</v>
+        <v>459894.8297962989</v>
       </c>
     </row>
     <row r="3">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.3527495213632</v>
+        <v>196.2739837482681</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.6111708603769</v>
+        <v>268.5507235612986</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.8882801678128</v>
+        <v>242.9206194179946</v>
       </c>
       <c r="AD3" t="n">
-        <v>166352.7495213632</v>
+        <v>196273.9837482681</v>
       </c>
       <c r="AE3" t="n">
-        <v>227611.1708603769</v>
+        <v>268550.7235612986</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.426648333295257e-06</v>
+        <v>7.719688161856492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.780555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>205888.2801678127</v>
+        <v>242920.6194179946</v>
       </c>
     </row>
     <row r="4">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.045159878779</v>
+        <v>196.9663941056839</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.5585572583818</v>
+        <v>269.4981099593035</v>
       </c>
       <c r="AC4" t="n">
-        <v>206.7452493376575</v>
+        <v>243.7775885878393</v>
       </c>
       <c r="AD4" t="n">
-        <v>167045.159878779</v>
+        <v>196966.3941056839</v>
       </c>
       <c r="AE4" t="n">
-        <v>228558.5572583818</v>
+        <v>269498.1099593035</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.425886589019842e-06</v>
+        <v>7.71835974635507e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.780555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>206745.2493376575</v>
+        <v>243777.5885878393</v>
       </c>
     </row>
   </sheetData>
@@ -5610,28 +5610,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>549.4037859078045</v>
+        <v>601.0055716724796</v>
       </c>
       <c r="AB2" t="n">
-        <v>751.7184978634621</v>
+        <v>822.3223376568104</v>
       </c>
       <c r="AC2" t="n">
-        <v>679.9755394709106</v>
+        <v>743.8410478874933</v>
       </c>
       <c r="AD2" t="n">
-        <v>549403.7859078045</v>
+        <v>601005.5716724796</v>
       </c>
       <c r="AE2" t="n">
-        <v>751718.4978634621</v>
+        <v>822322.3376568104</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.285902087682214e-06</v>
+        <v>3.885882047747183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.934722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>679975.5394709106</v>
+        <v>743841.0478874934</v>
       </c>
     </row>
     <row r="3">
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.165080885557</v>
+        <v>225.0920160025331</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.6652296263107</v>
+        <v>307.9808266534189</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.3105129743449</v>
+        <v>278.5875688115128</v>
       </c>
       <c r="AD3" t="n">
-        <v>194165.080885557</v>
+        <v>225092.0160025331</v>
       </c>
       <c r="AE3" t="n">
-        <v>265665.2296263108</v>
+        <v>307980.8266534189</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.131093428707394e-06</v>
+        <v>7.022585034889779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.944444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>240310.5129743449</v>
+        <v>278587.5688115128</v>
       </c>
     </row>
     <row r="4">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.1114026149766</v>
+        <v>206.0383377319526</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.5951464275561</v>
+        <v>281.9107434546644</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.7285219264795</v>
+        <v>255.0055777636474</v>
       </c>
       <c r="AD4" t="n">
-        <v>175111.4026149766</v>
+        <v>206038.3377319526</v>
       </c>
       <c r="AE4" t="n">
-        <v>239595.1464275561</v>
+        <v>281910.7434546644</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.379461947594191e-06</v>
+        <v>7.444795056031304e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.663888888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>216728.5219264795</v>
+        <v>255005.5777636474</v>
       </c>
     </row>
   </sheetData>
@@ -6119,28 +6119,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.1318552068927</v>
+        <v>227.9562942903542</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.4609893713771</v>
+        <v>311.8998585698537</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.457694947253</v>
+        <v>282.1325738222401</v>
       </c>
       <c r="AD2" t="n">
-        <v>199131.8552068927</v>
+        <v>227956.2942903542</v>
       </c>
       <c r="AE2" t="n">
-        <v>272460.9893713772</v>
+        <v>311899.8585698537</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.976361839485497e-06</v>
+        <v>7.170321362629278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.556944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>246457.694947253</v>
+        <v>282132.5738222401</v>
       </c>
     </row>
     <row r="3">
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.7716663986109</v>
+        <v>189.9880486294697</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.657327880678</v>
+        <v>259.9500298158774</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.3574004479329</v>
+        <v>235.1407638124842</v>
       </c>
       <c r="AD3" t="n">
-        <v>170771.6663986109</v>
+        <v>189988.0486294697</v>
       </c>
       <c r="AE3" t="n">
-        <v>233657.327880678</v>
+        <v>259950.0298158774</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.396826906169241e-06</v>
+        <v>7.928519376689256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.025</v>
       </c>
       <c r="AH3" t="n">
-        <v>211357.4004479329</v>
+        <v>235140.7638124842</v>
       </c>
     </row>
   </sheetData>
@@ -6522,28 +6522,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.8166806590772</v>
+        <v>197.4012499569133</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.3506742608512</v>
+        <v>270.0930989194414</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.1754520156821</v>
+        <v>244.3157926366943</v>
       </c>
       <c r="AD2" t="n">
-        <v>169816.6806590772</v>
+        <v>197401.2499569134</v>
       </c>
       <c r="AE2" t="n">
-        <v>232350.6742608512</v>
+        <v>270093.0989194415</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.253908669759108e-06</v>
+        <v>7.93643384675656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.411111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>210175.4520156822</v>
+        <v>244315.7926366942</v>
       </c>
     </row>
     <row r="3">
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.1710797735039</v>
+        <v>197.75564907134</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.835578764195</v>
+        <v>270.5780034227853</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.6140779137947</v>
+        <v>244.7544185348068</v>
       </c>
       <c r="AD3" t="n">
-        <v>170171.0797735039</v>
+        <v>197755.64907134</v>
       </c>
       <c r="AE3" t="n">
-        <v>232835.578764195</v>
+        <v>270578.0034227853</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.263685865377176e-06</v>
+        <v>7.954674968570297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.398611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>210614.0779137947</v>
+        <v>244754.4185348068</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.3710375771188</v>
+        <v>200.2715055165965</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.2139022032736</v>
+        <v>274.0203092029364</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.5745403088646</v>
+        <v>247.8681954826079</v>
       </c>
       <c r="AD2" t="n">
-        <v>173371.0375771188</v>
+        <v>200271.5055165965</v>
       </c>
       <c r="AE2" t="n">
-        <v>237213.9022032736</v>
+        <v>274020.3092029364</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.048366281852105e-06</v>
+        <v>7.785158488028849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.880555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>214574.5403088646</v>
+        <v>247868.1954826079</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.2249492099238</v>
+        <v>251.8332162103338</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.58500291417</v>
+        <v>344.569316516205</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.0884693028134</v>
+        <v>311.6841045540742</v>
       </c>
       <c r="AD2" t="n">
-        <v>218224.9492099237</v>
+        <v>251833.2162103338</v>
       </c>
       <c r="AE2" t="n">
-        <v>298585.00291417</v>
+        <v>344569.316516205</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.270072438448075e-06</v>
+        <v>6.744849192350007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.813888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>270088.4693028134</v>
+        <v>311684.1045540742</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.8793619695571</v>
+        <v>335.4349249957351</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.8351963229451</v>
+        <v>458.9568627236418</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.1982933756491</v>
+        <v>415.1546638952991</v>
       </c>
       <c r="AD2" t="n">
-        <v>295879.3619695571</v>
+        <v>335434.9249957351</v>
       </c>
       <c r="AE2" t="n">
-        <v>404835.1963229451</v>
+        <v>458956.8627236418</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.230495083810909e-06</v>
+        <v>5.675852426410213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.615277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>366198.2933756491</v>
+        <v>415154.6638952991</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.7167850976761</v>
+        <v>194.3621221536662</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.3727721622327</v>
+        <v>265.9348301821848</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.8635110998064</v>
+        <v>240.5543832315532</v>
       </c>
       <c r="AD3" t="n">
-        <v>164716.7850976761</v>
+        <v>194362.1221536662</v>
       </c>
       <c r="AE3" t="n">
-        <v>225372.7721622327</v>
+        <v>265934.8301821848</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.428832579058319e-06</v>
+        <v>7.781284133811154e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.825</v>
       </c>
       <c r="AH3" t="n">
-        <v>203863.5110998064</v>
+        <v>240554.3832315532</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.7399760048934</v>
+        <v>529.6863517485351</v>
       </c>
       <c r="AB2" t="n">
-        <v>668.7155968558899</v>
+        <v>724.7402345749471</v>
       </c>
       <c r="AC2" t="n">
-        <v>604.894318840198</v>
+        <v>655.5720437664212</v>
       </c>
       <c r="AD2" t="n">
-        <v>488739.9760048934</v>
+        <v>529686.3517485351</v>
       </c>
       <c r="AE2" t="n">
-        <v>668715.5968558899</v>
+        <v>724740.234574947</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.456006774715972e-06</v>
+        <v>4.19949788148592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.384722222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>604894.318840198</v>
+        <v>655572.0437664211</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.522896849838</v>
+        <v>211.2112763125127</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.9993915779662</v>
+        <v>288.9885862345267</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.4261163116602</v>
+        <v>261.4079211624167</v>
       </c>
       <c r="AD3" t="n">
-        <v>180522.896849838</v>
+        <v>211211.2763125127</v>
       </c>
       <c r="AE3" t="n">
-        <v>246999.3915779662</v>
+        <v>288988.5862345267</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.291339535971364e-06</v>
+        <v>7.337712369353145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.798611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>223426.1163116602</v>
+        <v>261407.9211624167</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.655469373441</v>
+        <v>202.3438488361156</v>
       </c>
       <c r="AB4" t="n">
-        <v>234.8665861014752</v>
+        <v>276.8557807580358</v>
       </c>
       <c r="AC4" t="n">
-        <v>212.4512487613422</v>
+        <v>250.4330536120988</v>
       </c>
       <c r="AD4" t="n">
-        <v>171655.469373441</v>
+        <v>202343.8488361156</v>
       </c>
       <c r="AE4" t="n">
-        <v>234866.5861014752</v>
+        <v>276855.7807580358</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.416334326546439e-06</v>
+        <v>7.551439531517635e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.6625</v>
       </c>
       <c r="AH4" t="n">
-        <v>212451.2487613423</v>
+        <v>250433.0536120988</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.0153970163888</v>
+        <v>316.672286107729</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.7104902026442</v>
+        <v>433.2849924478639</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.7121556991086</v>
+        <v>391.9328808879453</v>
       </c>
       <c r="AD2" t="n">
-        <v>268015.3970163888</v>
+        <v>316672.286107729</v>
       </c>
       <c r="AE2" t="n">
-        <v>366710.4902026442</v>
+        <v>433284.9924478639</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.665799384171828e-06</v>
+        <v>5.714035922048634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.926388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>331712.1556991086</v>
+        <v>391932.8808879452</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.1693467112744</v>
+        <v>188.9259241699839</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.8332075119953</v>
+        <v>258.4967842727856</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.6119329705768</v>
+        <v>233.8262139843817</v>
       </c>
       <c r="AD2" t="n">
-        <v>170169.3467112744</v>
+        <v>188925.9241699839</v>
       </c>
       <c r="AE2" t="n">
-        <v>232833.2075119953</v>
+        <v>258496.7842727856</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.303601470789499e-06</v>
+        <v>7.929095367904115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.270833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>210611.9329705768</v>
+        <v>233826.2139843817</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.9527452611611</v>
+        <v>188.7093227198707</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.5368438521689</v>
+        <v>258.2004206129592</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.3438538424952</v>
+        <v>233.5581348563</v>
       </c>
       <c r="AD3" t="n">
-        <v>169952.7452611611</v>
+        <v>188709.3227198707</v>
       </c>
       <c r="AE3" t="n">
-        <v>232536.8438521689</v>
+        <v>258200.4206129592</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.321564442702182e-06</v>
+        <v>7.962190931783201e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.248611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>210343.8538424952</v>
+        <v>233558.1348563</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.3418465799389</v>
+        <v>254.4831393026456</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.3226558711726</v>
+        <v>348.1950581974601</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.8967743284845</v>
+        <v>314.963810538032</v>
       </c>
       <c r="AD2" t="n">
-        <v>225341.8465799389</v>
+        <v>254483.1393026456</v>
       </c>
       <c r="AE2" t="n">
-        <v>308322.6558711726</v>
+        <v>348195.0581974601</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.707152905067347e-06</v>
+        <v>6.622558123257976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.890277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>278896.7743284845</v>
+        <v>314963.810538032</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.2454626348078</v>
+        <v>191.3014145029429</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.9913997414856</v>
+        <v>261.7470349455755</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.8048521171084</v>
+        <v>236.766265294717</v>
       </c>
       <c r="AD3" t="n">
-        <v>162245.4626348077</v>
+        <v>191301.4145029429</v>
       </c>
       <c r="AE3" t="n">
-        <v>221991.3997414856</v>
+        <v>261747.0349455755</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.412768166017441e-06</v>
+        <v>7.883088292356828e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.948611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>200804.8521171084</v>
+        <v>236766.265294717</v>
       </c>
     </row>
   </sheetData>
